--- a/analysis/metadata/P10_1/P10_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P10_1/P10_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -507,11 +507,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -546,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +566,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -580,11 +575,6 @@
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -619,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>09/07/2020 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -644,7 +634,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>09/07/2020 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -653,11 +643,6 @@
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -697,7 +682,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -722,7 +707,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -731,11 +716,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -775,7 +755,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>08/09/2020 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -800,7 +780,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>08/09/2020 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -809,11 +789,6 @@
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -848,7 +823,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -873,7 +848,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -882,11 +857,6 @@
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -926,7 +896,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -951,7 +921,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -960,11 +930,6 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1004,7 +969,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1029,7 +994,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1038,11 +1003,6 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1082,7 +1042,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1107,7 +1067,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1116,11 +1076,6 @@
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1160,7 +1115,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1185,7 +1140,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1194,11 +1149,6 @@
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1238,7 +1188,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1263,7 +1213,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1272,11 +1222,6 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1316,7 +1261,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1341,7 +1286,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1350,11 +1295,6 @@
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1394,7 +1334,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1419,7 +1359,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1428,11 +1368,6 @@
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1472,7 +1407,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1497,7 +1432,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1506,11 +1441,6 @@
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1545,7 +1475,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1570,7 +1500,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1579,11 +1509,6 @@
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1623,7 +1548,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1648,7 +1573,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1657,11 +1582,6 @@
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1701,7 +1621,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1726,7 +1646,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1735,11 +1655,6 @@
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1774,7 +1689,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1799,7 +1714,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1808,11 +1723,6 @@
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1847,7 +1757,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1872,7 +1782,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1881,11 +1791,6 @@
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1925,7 +1830,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1950,7 +1855,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1959,11 +1864,6 @@
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2003,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>09/07/2020 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2028,7 +1928,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>09/07/2020 00:00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2037,11 +1937,6 @@
         </is>
       </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2081,7 +1976,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2106,7 +2001,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2115,11 +2010,6 @@
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2159,7 +2049,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2184,7 +2074,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2193,11 +2083,6 @@
         </is>
       </c>
       <c r="O24" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2232,7 +2117,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2257,7 +2142,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2266,11 +2151,6 @@
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2305,7 +2185,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2330,7 +2210,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2339,11 +2219,6 @@
         </is>
       </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2383,7 +2258,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2408,7 +2283,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2417,11 +2292,6 @@
         </is>
       </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2456,7 +2326,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2481,7 +2351,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2490,11 +2360,6 @@
         </is>
       </c>
       <c r="O28" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2534,7 +2399,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2559,7 +2424,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2568,11 +2433,6 @@
         </is>
       </c>
       <c r="O29" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2607,7 +2467,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2632,7 +2492,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 00:00</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2641,11 +2501,6 @@
         </is>
       </c>
       <c r="O30" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2680,7 +2535,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2705,7 +2560,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2714,11 +2569,6 @@
         </is>
       </c>
       <c r="O31" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2758,7 +2608,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2783,7 +2633,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2792,11 +2642,6 @@
         </is>
       </c>
       <c r="O32" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2831,7 +2676,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2856,7 +2701,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2865,11 +2710,6 @@
         </is>
       </c>
       <c r="O33" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2904,7 +2744,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2929,7 +2769,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2938,11 +2778,6 @@
         </is>
       </c>
       <c r="O34" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2982,7 +2817,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>09/07/2020 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3007,7 +2842,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>09/07/2020 00:00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3016,11 +2851,6 @@
         </is>
       </c>
       <c r="O35" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3055,7 +2885,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3080,7 +2910,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3089,11 +2919,6 @@
         </is>
       </c>
       <c r="O36" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3133,7 +2958,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3158,7 +2983,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3167,11 +2992,6 @@
         </is>
       </c>
       <c r="O37" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3206,7 +3026,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3231,7 +3051,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3240,11 +3060,6 @@
         </is>
       </c>
       <c r="O38" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3284,7 +3099,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3309,7 +3124,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3318,11 +3133,6 @@
         </is>
       </c>
       <c r="O39" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3362,7 +3172,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3387,7 +3197,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 00:00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3396,11 +3206,6 @@
         </is>
       </c>
       <c r="O40" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3440,7 +3245,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3465,7 +3270,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3474,11 +3279,6 @@
         </is>
       </c>
       <c r="O41" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3518,7 +3318,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3543,7 +3343,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3552,11 +3352,6 @@
         </is>
       </c>
       <c r="O42" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3596,7 +3391,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3621,7 +3416,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 00:00</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3630,11 +3425,6 @@
         </is>
       </c>
       <c r="O43" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3674,7 +3464,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3699,7 +3489,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3708,11 +3498,6 @@
         </is>
       </c>
       <c r="O44" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3752,7 +3537,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3777,7 +3562,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 00:00</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3786,11 +3571,6 @@
         </is>
       </c>
       <c r="O45" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3830,7 +3610,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3855,7 +3635,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3864,11 +3644,6 @@
         </is>
       </c>
       <c r="O46" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3903,7 +3678,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3928,7 +3703,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3937,11 +3712,6 @@
         </is>
       </c>
       <c r="O47" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3981,7 +3751,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4006,7 +3776,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4015,11 +3785,6 @@
         </is>
       </c>
       <c r="O48" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4059,7 +3824,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4084,7 +3849,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4093,11 +3858,6 @@
         </is>
       </c>
       <c r="O49" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4137,7 +3897,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4162,7 +3922,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4171,11 +3931,6 @@
         </is>
       </c>
       <c r="O50" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4215,7 +3970,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4240,7 +3995,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4249,11 +4004,6 @@
         </is>
       </c>
       <c r="O51" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4293,7 +4043,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4318,7 +4068,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4327,11 +4077,6 @@
         </is>
       </c>
       <c r="O52" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4371,7 +4116,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4396,7 +4141,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4405,11 +4150,6 @@
         </is>
       </c>
       <c r="O53" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4449,7 +4189,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4474,7 +4214,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4483,11 +4223,6 @@
         </is>
       </c>
       <c r="O54" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4527,7 +4262,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>09/07/2020 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4552,7 +4287,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>09/07/2020 00:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4561,11 +4296,6 @@
         </is>
       </c>
       <c r="O55" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4605,7 +4335,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4630,7 +4360,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4639,11 +4369,6 @@
         </is>
       </c>
       <c r="O56" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4683,7 +4408,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4708,7 +4433,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4717,11 +4442,6 @@
         </is>
       </c>
       <c r="O57" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4761,7 +4481,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4786,7 +4506,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4795,11 +4515,6 @@
         </is>
       </c>
       <c r="O58" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4839,7 +4554,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4864,7 +4579,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>13/07/2020 00:00</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4873,11 +4588,6 @@
         </is>
       </c>
       <c r="O59" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4917,7 +4627,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4942,7 +4652,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 00:00</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4951,11 +4661,6 @@
         </is>
       </c>
       <c r="O60" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4990,7 +4695,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5015,7 +4720,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5024,11 +4729,6 @@
         </is>
       </c>
       <c r="O61" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5068,7 +4768,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5093,7 +4793,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 00:00</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5102,11 +4802,6 @@
         </is>
       </c>
       <c r="O62" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5146,7 +4841,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5171,7 +4866,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 00:00</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5180,11 +4875,6 @@
         </is>
       </c>
       <c r="O63" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5224,7 +4914,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5249,7 +4939,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5258,11 +4948,6 @@
         </is>
       </c>
       <c r="O64" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5302,7 +4987,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5327,7 +5012,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5336,11 +5021,6 @@
         </is>
       </c>
       <c r="O65" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5380,7 +5060,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5405,7 +5085,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 00:00</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5414,11 +5094,6 @@
         </is>
       </c>
       <c r="O66" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5458,7 +5133,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5483,7 +5158,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 00:00</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5492,11 +5167,6 @@
         </is>
       </c>
       <c r="O67" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5536,7 +5206,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5561,7 +5231,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 00:00</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5570,11 +5240,6 @@
         </is>
       </c>
       <c r="O68" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5609,7 +5274,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5634,7 +5299,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 00:00</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5643,11 +5308,6 @@
         </is>
       </c>
       <c r="O69" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5682,7 +5342,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5707,7 +5367,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 00:00</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5716,11 +5376,6 @@
         </is>
       </c>
       <c r="O70" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5760,7 +5415,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5785,7 +5440,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 00:00</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5794,11 +5449,6 @@
         </is>
       </c>
       <c r="O71" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5838,7 +5488,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5858,7 +5508,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5867,11 +5517,6 @@
         </is>
       </c>
       <c r="O72" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5911,7 +5556,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
+          <t>03/09/2020 00:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5931,7 +5576,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
+          <t>03/09/2020 00:00</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5940,11 +5585,6 @@
         </is>
       </c>
       <c r="O73" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5984,7 +5624,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6004,7 +5644,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6013,11 +5653,6 @@
         </is>
       </c>
       <c r="O74" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6057,7 +5692,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6082,7 +5717,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 00:00</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6091,11 +5726,6 @@
         </is>
       </c>
       <c r="O75" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6135,7 +5765,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6160,7 +5790,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6169,11 +5799,6 @@
         </is>
       </c>
       <c r="O76" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6208,7 +5833,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
+          <t>07/09/2020 00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6233,7 +5858,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
+          <t>07/09/2020 00:00</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6242,11 +5867,6 @@
         </is>
       </c>
       <c r="O77" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6286,7 +5906,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6311,7 +5931,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6320,11 +5940,6 @@
         </is>
       </c>
       <c r="O78" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6364,7 +5979,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6389,7 +6004,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6398,11 +6013,6 @@
         </is>
       </c>
       <c r="O79" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6437,7 +6047,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>08/09/2020 00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6462,7 +6072,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>08/09/2020 00:00</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6471,11 +6081,6 @@
         </is>
       </c>
       <c r="O80" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6515,7 +6120,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6540,7 +6145,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6549,11 +6154,6 @@
         </is>
       </c>
       <c r="O81" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6593,7 +6193,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6618,7 +6218,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 00:00</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6627,11 +6227,6 @@
         </is>
       </c>
       <c r="O82" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6671,7 +6266,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6696,7 +6291,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 00:00</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6705,11 +6300,6 @@
         </is>
       </c>
       <c r="O83" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6749,7 +6339,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6774,7 +6364,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6783,11 +6373,6 @@
         </is>
       </c>
       <c r="O84" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6827,7 +6412,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6852,7 +6437,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6861,11 +6446,6 @@
         </is>
       </c>
       <c r="O85" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>

--- a/analysis/metadata/P10_1/P10_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P10_1/P10_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09/07/2020 00:00</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/07/2020 00:00</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>29/07/2020 00:00</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2020 00:00</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08/09/2020 00:00</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08/09/2020 00:00</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16/07/2020 00:00</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16/07/2020 00:00</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>09/07/2020 00:00</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>09/07/2020 00:00</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>27/07/2020 00:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/07/2020 00:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16/07/2020 00:00</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/07/2020 00:00</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09/07/2020 00:00</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>09/07/2020 00:00</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>16/07/2020 00:00</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/07/2020 00:00</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>29/07/2020 00:00</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>29/07/2020 00:00</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/07/2020 00:00</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09/07/2020 00:00</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>09/07/2020 00:00</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>13/07/2020 00:00</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>29/07/2020 00:00</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>29/07/2020 00:00</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>15/07/2020 00:00</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>27/07/2020 00:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>27/07/2020 00:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>14/07/2020 00:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>06/07/2020 00:00</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>27/07/2020 00:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>27/07/2020 00:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>07/07/2020 00:00</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/07/2020 00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/07/2020 00:00</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>03/09/2020 00:00</t>
+          <t>2020-09-03</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>03/09/2020 00:00</t>
+          <t>2020-09-03</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>27/07/2020 00:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/07/2020 00:00</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>07/09/2020 00:00</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/09/2020 00:00</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>08/09/2020 00:00</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/09/2020 00:00</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>10/08/2020 00:00</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>10/08/2020 00:00</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10/08/2020 00:00</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>10/08/2020 00:00</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
